--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Adra2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.688856892251817</v>
+        <v>0.780675</v>
       </c>
       <c r="N2">
-        <v>0.688856892251817</v>
+        <v>2.342025</v>
       </c>
       <c r="O2">
-        <v>0.182838147310704</v>
+        <v>0.1524808473209036</v>
       </c>
       <c r="P2">
-        <v>0.182838147310704</v>
+        <v>0.1524808473209036</v>
       </c>
       <c r="Q2">
-        <v>97.60166943877965</v>
+        <v>117.1289098357</v>
       </c>
       <c r="R2">
-        <v>97.60166943877965</v>
+        <v>1054.1601885213</v>
       </c>
       <c r="S2">
-        <v>0.07716650496049465</v>
+        <v>0.06331778415147951</v>
       </c>
       <c r="T2">
-        <v>0.07716650496049465</v>
+        <v>0.06331778415147951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.19029057948495</v>
+        <v>1.194878</v>
       </c>
       <c r="N3">
-        <v>1.19029057948495</v>
+        <v>3.584634</v>
       </c>
       <c r="O3">
-        <v>0.3159299511441283</v>
+        <v>0.2333826622923838</v>
       </c>
       <c r="P3">
-        <v>0.3159299511441283</v>
+        <v>0.2333826622923838</v>
       </c>
       <c r="Q3">
-        <v>168.6480152578849</v>
+        <v>179.2740353241254</v>
       </c>
       <c r="R3">
-        <v>168.6480152578849</v>
+        <v>1613.466317917128</v>
       </c>
       <c r="S3">
-        <v>0.1333376568331972</v>
+        <v>0.09691232240221802</v>
       </c>
       <c r="T3">
-        <v>0.1333376568331972</v>
+        <v>0.09691232240221799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.88843004085537</v>
+        <v>0.07445733333333333</v>
       </c>
       <c r="N4">
-        <v>1.88843004085537</v>
+        <v>0.223372</v>
       </c>
       <c r="O4">
-        <v>0.5012319015451677</v>
+        <v>0.01454294972417668</v>
       </c>
       <c r="P4">
-        <v>0.5012319015451677</v>
+        <v>0.01454294972417668</v>
       </c>
       <c r="Q4">
-        <v>267.5648987169451</v>
+        <v>11.17123807295822</v>
       </c>
       <c r="R4">
-        <v>267.5648987169451</v>
+        <v>100.541142656624</v>
       </c>
       <c r="S4">
-        <v>0.2115440053722256</v>
+        <v>0.006038970583782958</v>
       </c>
       <c r="T4">
-        <v>0.2115440053722256</v>
+        <v>0.006038970583782958</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>67.92168737024831</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H5">
-        <v>67.92168737024831</v>
+        <v>450.106292</v>
       </c>
       <c r="I5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J5">
-        <v>0.2023215981889492</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.688856892251817</v>
+        <v>3.069813</v>
       </c>
       <c r="N5">
-        <v>0.688856892251817</v>
+        <v>9.209439000000001</v>
       </c>
       <c r="O5">
-        <v>0.182838147310704</v>
+        <v>0.5995935406625359</v>
       </c>
       <c r="P5">
-        <v>0.182838147310704</v>
+        <v>0.5995935406625359</v>
       </c>
       <c r="Q5">
-        <v>46.78832247836874</v>
+        <v>460.580715521132</v>
       </c>
       <c r="R5">
-        <v>46.78832247836874</v>
+        <v>4145.226439690188</v>
       </c>
       <c r="S5">
-        <v>0.03699210617380817</v>
+        <v>0.248981659358127</v>
       </c>
       <c r="T5">
-        <v>0.03699210617380817</v>
+        <v>0.248981659358127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.19029057948495</v>
+        <v>0.780675</v>
       </c>
       <c r="N6">
-        <v>1.19029057948495</v>
+        <v>2.342025</v>
       </c>
       <c r="O6">
-        <v>0.3159299511441283</v>
+        <v>0.1524808473209036</v>
       </c>
       <c r="P6">
-        <v>0.3159299511441283</v>
+        <v>0.1524808473209036</v>
       </c>
       <c r="Q6">
-        <v>80.84654461952847</v>
+        <v>53.384307554025</v>
       </c>
       <c r="R6">
-        <v>80.84654461952847</v>
+        <v>480.458767986225</v>
       </c>
       <c r="S6">
-        <v>0.06391945263123668</v>
+        <v>0.02885859748480047</v>
       </c>
       <c r="T6">
-        <v>0.06391945263123668</v>
+        <v>0.02885859748480046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.88843004085537</v>
+        <v>1.194878</v>
       </c>
       <c r="N7">
-        <v>1.88843004085537</v>
+        <v>3.584634</v>
       </c>
       <c r="O7">
-        <v>0.5012319015451677</v>
+        <v>0.2333826622923838</v>
       </c>
       <c r="P7">
-        <v>0.5012319015451677</v>
+        <v>0.2333826622923838</v>
       </c>
       <c r="Q7">
-        <v>128.2653548555637</v>
+        <v>81.70843775135401</v>
       </c>
       <c r="R7">
-        <v>128.2653548555637</v>
+        <v>735.375939762186</v>
       </c>
       <c r="S7">
-        <v>0.1014100393839044</v>
+        <v>0.04417011335759877</v>
       </c>
       <c r="T7">
-        <v>0.1014100393839044</v>
+        <v>0.04417011335759875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H8">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J8">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.688856892251817</v>
+        <v>0.07445733333333333</v>
       </c>
       <c r="N8">
-        <v>0.688856892251817</v>
+        <v>0.223372</v>
       </c>
       <c r="O8">
-        <v>0.182838147310704</v>
+        <v>0.01454294972417668</v>
       </c>
       <c r="P8">
-        <v>0.182838147310704</v>
+        <v>0.01454294972417668</v>
       </c>
       <c r="Q8">
-        <v>62.85363846981249</v>
+        <v>5.091559461132</v>
       </c>
       <c r="R8">
-        <v>62.85363846981249</v>
+        <v>45.824035150188</v>
       </c>
       <c r="S8">
-        <v>0.04969377709064898</v>
+        <v>0.002752405562440559</v>
       </c>
       <c r="T8">
-        <v>0.04969377709064898</v>
+        <v>0.002752405562440558</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>91.2433905747086</v>
+        <v>68.382243</v>
       </c>
       <c r="H9">
-        <v>91.2433905747086</v>
+        <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J9">
-        <v>0.2717910776365635</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.19029057948495</v>
+        <v>3.069813</v>
       </c>
       <c r="N9">
-        <v>1.19029057948495</v>
+        <v>9.209439000000001</v>
       </c>
       <c r="O9">
-        <v>0.3159299511441283</v>
+        <v>0.5995935406625359</v>
       </c>
       <c r="P9">
-        <v>0.3159299511441283</v>
+        <v>0.5995935406625359</v>
       </c>
       <c r="Q9">
-        <v>108.6061482413415</v>
+        <v>209.920698530559</v>
       </c>
       <c r="R9">
-        <v>108.6061482413415</v>
+        <v>1889.286286775031</v>
       </c>
       <c r="S9">
-        <v>0.08586694187912947</v>
+        <v>0.1134793578897848</v>
       </c>
       <c r="T9">
-        <v>0.08586694187912947</v>
+        <v>0.1134793578897848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H10">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.88843004085537</v>
+        <v>0.780675</v>
       </c>
       <c r="N10">
-        <v>1.88843004085537</v>
+        <v>2.342025</v>
       </c>
       <c r="O10">
-        <v>0.5012319015451677</v>
+        <v>0.1524808473209036</v>
       </c>
       <c r="P10">
-        <v>0.5012319015451677</v>
+        <v>0.1524808473209036</v>
       </c>
       <c r="Q10">
-        <v>172.3067597907794</v>
+        <v>81.76574874037499</v>
       </c>
       <c r="R10">
-        <v>172.3067597907794</v>
+        <v>735.8917386633749</v>
       </c>
       <c r="S10">
-        <v>0.136230358666785</v>
+        <v>0.04420109464853222</v>
       </c>
       <c r="T10">
-        <v>0.136230358666785</v>
+        <v>0.04420109464853221</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H11">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I11">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J11">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.688856892251817</v>
+        <v>1.194878</v>
       </c>
       <c r="N11">
-        <v>0.688856892251817</v>
+        <v>3.584634</v>
       </c>
       <c r="O11">
-        <v>0.182838147310704</v>
+        <v>0.2333826622923838</v>
       </c>
       <c r="P11">
-        <v>0.182838147310704</v>
+        <v>0.2333826622923838</v>
       </c>
       <c r="Q11">
-        <v>24.01355074044832</v>
+        <v>125.14822983111</v>
       </c>
       <c r="R11">
-        <v>24.01355074044832</v>
+        <v>1126.33406847999</v>
       </c>
       <c r="S11">
-        <v>0.01898575908575222</v>
+        <v>0.06765288445441303</v>
       </c>
       <c r="T11">
-        <v>0.01898575908575222</v>
+        <v>0.067652884454413</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H12">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I12">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J12">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.19029057948495</v>
+        <v>0.07445733333333333</v>
       </c>
       <c r="N12">
-        <v>1.19029057948495</v>
+        <v>0.223372</v>
       </c>
       <c r="O12">
-        <v>0.3159299511441283</v>
+        <v>0.01454294972417668</v>
       </c>
       <c r="P12">
-        <v>0.3159299511441283</v>
+        <v>0.01454294972417668</v>
       </c>
       <c r="Q12">
-        <v>41.49352869636486</v>
+        <v>7.798455963379999</v>
       </c>
       <c r="R12">
-        <v>41.49352869636486</v>
+        <v>70.18610367042</v>
       </c>
       <c r="S12">
-        <v>0.03280589980056493</v>
+        <v>0.004215705175577519</v>
       </c>
       <c r="T12">
-        <v>0.03280589980056493</v>
+        <v>0.004215705175577518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>34.8599992401179</v>
+        <v>104.737245</v>
       </c>
       <c r="H13">
-        <v>34.8599992401179</v>
+        <v>314.211735</v>
       </c>
       <c r="I13">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J13">
-        <v>0.1038391570085698</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.88843004085537</v>
+        <v>3.069813</v>
       </c>
       <c r="N13">
-        <v>1.88843004085537</v>
+        <v>9.209439000000001</v>
       </c>
       <c r="O13">
-        <v>0.5012319015451677</v>
+        <v>0.5995935406625359</v>
       </c>
       <c r="P13">
-        <v>0.5012319015451677</v>
+        <v>0.5995935406625359</v>
       </c>
       <c r="Q13">
-        <v>65.83066978923402</v>
+        <v>321.523756285185</v>
       </c>
       <c r="R13">
-        <v>65.83066978923402</v>
+        <v>2893.713806566665</v>
       </c>
       <c r="S13">
-        <v>0.05204749812225269</v>
+        <v>0.1738099656916062</v>
       </c>
       <c r="T13">
-        <v>0.05204749812225269</v>
+        <v>0.1738099656916061</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>38.15794</v>
+      </c>
+      <c r="H14">
+        <v>114.47382</v>
+      </c>
+      <c r="I14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J14">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.780675</v>
+      </c>
+      <c r="N14">
+        <v>2.342025</v>
+      </c>
+      <c r="O14">
+        <v>0.1524808473209036</v>
+      </c>
+      <c r="P14">
+        <v>0.1524808473209036</v>
+      </c>
+      <c r="Q14">
+        <v>29.7889498095</v>
+      </c>
+      <c r="R14">
+        <v>268.1005482855</v>
+      </c>
+      <c r="S14">
+        <v>0.01610337103609145</v>
+      </c>
+      <c r="T14">
+        <v>0.01610337103609144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>38.15794</v>
+      </c>
+      <c r="H15">
+        <v>114.47382</v>
+      </c>
+      <c r="I15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J15">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.194878</v>
+      </c>
+      <c r="N15">
+        <v>3.584634</v>
+      </c>
+      <c r="O15">
+        <v>0.2333826622923838</v>
+      </c>
+      <c r="P15">
+        <v>0.2333826622923838</v>
+      </c>
+      <c r="Q15">
+        <v>45.59408303132001</v>
+      </c>
+      <c r="R15">
+        <v>410.34674728188</v>
+      </c>
+      <c r="S15">
+        <v>0.02464734207815401</v>
+      </c>
+      <c r="T15">
+        <v>0.024647342078154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>38.15794</v>
+      </c>
+      <c r="H16">
+        <v>114.47382</v>
+      </c>
+      <c r="I16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J16">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.07445733333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.223372</v>
+      </c>
+      <c r="O16">
+        <v>0.01454294972417668</v>
+      </c>
+      <c r="P16">
+        <v>0.01454294972417668</v>
+      </c>
+      <c r="Q16">
+        <v>2.841138457893333</v>
+      </c>
+      <c r="R16">
+        <v>25.57024612104</v>
+      </c>
+      <c r="S16">
+        <v>0.001535868402375645</v>
+      </c>
+      <c r="T16">
+        <v>0.001535868402375644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>38.15794</v>
+      </c>
+      <c r="H17">
+        <v>114.47382</v>
+      </c>
+      <c r="I17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="J17">
+        <v>0.105609139239639</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.069813</v>
+      </c>
+      <c r="N17">
+        <v>9.209439000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.5995935406625359</v>
+      </c>
+      <c r="P17">
+        <v>0.5995935406625359</v>
+      </c>
+      <c r="Q17">
+        <v>117.13774026522</v>
+      </c>
+      <c r="R17">
+        <v>1054.23966238698</v>
+      </c>
+      <c r="S17">
+        <v>0.06332255772301791</v>
+      </c>
+      <c r="T17">
+        <v>0.06332255772301788</v>
       </c>
     </row>
   </sheetData>
